--- a/data/trans_dic/P1414-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1414-Estudios-trans_dic.xlsx
@@ -655,7 +655,7 @@
         <v>0.05110585324640246</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.07632395104484979</v>
+        <v>0.07632395104484978</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.02363535104226865</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.00103385788950793</v>
+        <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.003053271795231845</v>
+        <v>0.002297153892226927</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0290873263899252</v>
+        <v>0.02893476114035158</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03825092427905479</v>
+        <v>0.03802133591231177</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06398453897269303</v>
+        <v>0.06200807982823763</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01747488276837665</v>
+        <v>0.01759729845811511</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02273549709870605</v>
+        <v>0.02158706045804753</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04019026205433144</v>
+        <v>0.04011066465041899</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.008723647307733421</v>
+        <v>0.008702976847768537</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.006574106784733461</v>
+        <v>0.006575185340422935</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02292293525078822</v>
+        <v>0.02132223600968169</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05078649969851376</v>
+        <v>0.05063262666918482</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06728005425099103</v>
+        <v>0.06774362464546889</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.092647257948746</v>
+        <v>0.09271022166049632</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0307679547603782</v>
+        <v>0.02983004603155908</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03915860033402817</v>
+        <v>0.03812200192092376</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05778922264476367</v>
+        <v>0.0586765747792898</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.005032955884071328</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.003328521425360601</v>
+        <v>0.003328521425360602</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.02036737813895804</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.000532030033599238</v>
+        <v>0.0005318375153208043</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002475561750939174</v>
+        <v>0.002559391003136912</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001616585651993889</v>
+        <v>0.001583793210577164</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01355680955375548</v>
+        <v>0.01490561439194049</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02551029882593489</v>
+        <v>0.02518288360379067</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02994357312284715</v>
+        <v>0.03019124612496884</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.007605784894021315</v>
+        <v>0.007792956783798728</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01479350957691717</v>
+        <v>0.01469021124346668</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01628301843148979</v>
+        <v>0.01644249722386162</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.005195682642491848</v>
+        <v>0.005449309799758638</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.009286629362766249</v>
+        <v>0.008978879518078627</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.006405741267422003</v>
+        <v>0.006650872375371004</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02799307694599301</v>
+        <v>0.02908444664124061</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04277271356076143</v>
+        <v>0.04175815047512735</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04239349289959874</v>
+        <v>0.04260624205538437</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01446579546840691</v>
+        <v>0.01509610530880911</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0237590598832686</v>
+        <v>0.02329938364474806</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02314556434153808</v>
+        <v>0.02283797104244487</v>
       </c>
     </row>
     <row r="10">
@@ -882,7 +882,7 @@
         <v>0.01023536041226684</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.0116036160039996</v>
+        <v>0.01160361600399961</v>
       </c>
     </row>
     <row r="11">
@@ -897,25 +897,25 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0008333785011116675</v>
+        <v>0.0008186692065797343</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.003289339255671695</v>
+        <v>0.002245186500043402</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.007504623871244073</v>
+        <v>0.007503975595673223</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01174034730104225</v>
+        <v>0.01252103727349159</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.001090805547892029</v>
+        <v>0.001101756262272715</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.005000113807683327</v>
+        <v>0.005066147090653356</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.007437525221473847</v>
+        <v>0.007458625789945895</v>
       </c>
     </row>
     <row r="12">
@@ -927,28 +927,28 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.01609655209399161</v>
+        <v>0.01706887623180243</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.009958576464453453</v>
+        <v>0.009948279329448081</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02837229738426868</v>
+        <v>0.02947034002987444</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02916233819938647</v>
+        <v>0.02960403249524741</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03233922064667377</v>
+        <v>0.03142872937080399</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.015066204815866</v>
+        <v>0.01465761542538698</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0190335439395298</v>
+        <v>0.01757616205327805</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01796869315380639</v>
+        <v>0.0170880214031787</v>
       </c>
     </row>
     <row r="13">
@@ -969,7 +969,7 @@
         <v>0.004159088791079831</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.004203391190403606</v>
+        <v>0.004203391190403607</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.02613782643612982</v>
@@ -978,7 +978,7 @@
         <v>0.03540899889656318</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.04158628488152387</v>
+        <v>0.04158628488152388</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.01437258963809217</v>
@@ -987,7 +987,7 @@
         <v>0.02013337564010638</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.02340345572878028</v>
+        <v>0.02340345572878027</v>
       </c>
     </row>
     <row r="14">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0009427790055267193</v>
+        <v>0.0009302319403215818</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.002420713625583156</v>
+        <v>0.002179407992585068</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.002310071514055004</v>
+        <v>0.002203251000585075</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02089595352279931</v>
+        <v>0.02077451868720329</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02956111330985895</v>
+        <v>0.02961812552530698</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03713302095305968</v>
+        <v>0.03666738866328333</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01141069265711185</v>
+        <v>0.01161677390414495</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01663316284237379</v>
+        <v>0.01692395367661341</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02052731697054566</v>
+        <v>0.02051001130725308</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0046219997243087</v>
+        <v>0.004573107654286273</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.007033610767012666</v>
+        <v>0.006756006574258552</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.006692980638831948</v>
+        <v>0.006830205720560713</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03172807426080332</v>
+        <v>0.0322626671116721</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0424851069803376</v>
+        <v>0.04211596726903154</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04699747348336634</v>
+        <v>0.046860267670396</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01721326177914747</v>
+        <v>0.0174177043843157</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02393214150283556</v>
+        <v>0.02396260364596197</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02620038641389347</v>
+        <v>0.02611733989630093</v>
       </c>
     </row>
     <row r="16">
@@ -1285,31 +1285,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1008</v>
+        <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1753</v>
+        <v>1319</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>38885</v>
+        <v>38681</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>38047</v>
+        <v>37818</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>52239</v>
+        <v>50626</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>40393</v>
+        <v>40676</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>39765</v>
+        <v>37756</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>55892</v>
+        <v>55781</v>
       </c>
     </row>
     <row r="7">
@@ -1320,31 +1320,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8502</v>
+        <v>8482</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13163</v>
+        <v>12244</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>67893</v>
+        <v>67687</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>66921</v>
+        <v>67382</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>75641</v>
+        <v>75692</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>71119</v>
+        <v>68951</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>68489</v>
+        <v>66676</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>80366</v>
+        <v>81600</v>
       </c>
     </row>
     <row r="8">
@@ -1432,28 +1432,28 @@
         <v>1045</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5140</v>
+        <v>5314</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3602</v>
+        <v>3529</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>23787</v>
+        <v>26153</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>50722</v>
+        <v>50071</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>64714</v>
+        <v>65249</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>28282</v>
+        <v>28978</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>60131</v>
+        <v>59711</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>71468</v>
+        <v>72168</v>
       </c>
     </row>
     <row r="11">
@@ -1464,31 +1464,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10204</v>
+        <v>10702</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19283</v>
+        <v>18644</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14272</v>
+        <v>14818</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>49116</v>
+        <v>51031</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>85045</v>
+        <v>83028</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>91620</v>
+        <v>92080</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>53792</v>
+        <v>56136</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>96573</v>
+        <v>94705</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>101589</v>
+        <v>100239</v>
       </c>
     </row>
     <row r="12">
@@ -1577,25 +1577,25 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1509</v>
+        <v>1030</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>4121</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>8595</v>
+        <v>9166</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1025</v>
+        <v>1035</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5480</v>
+        <v>5553</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>10733</v>
+        <v>10763</v>
       </c>
     </row>
     <row r="15">
@@ -1607,28 +1607,28 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>8803</v>
+        <v>9335</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7081</v>
+        <v>7073</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>13012</v>
+        <v>13516</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>16014</v>
+        <v>16257</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>23675</v>
+        <v>23008</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>14159</v>
+        <v>13775</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>20861</v>
+        <v>19264</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>25930</v>
+        <v>24659</v>
       </c>
     </row>
     <row r="16">
@@ -1713,31 +1713,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3224</v>
+        <v>3181</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8176</v>
+        <v>7361</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8116</v>
+        <v>7740</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>74182</v>
+        <v>73751</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>104413</v>
+        <v>104614</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>137753</v>
+        <v>136025</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>79531</v>
+        <v>80967</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>114930</v>
+        <v>116940</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>148266</v>
+        <v>148141</v>
       </c>
     </row>
     <row r="19">
@@ -1748,31 +1748,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>15806</v>
+        <v>15639</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>23757</v>
+        <v>22819</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>23514</v>
+        <v>23996</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>112636</v>
+        <v>114534</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>150062</v>
+        <v>148758</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>174347</v>
+        <v>173838</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>119974</v>
+        <v>121399</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>165364</v>
+        <v>165575</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>189242</v>
+        <v>188642</v>
       </c>
     </row>
     <row r="20">
